--- a/va_facility_data_2025-02-20/Michael A. Marzano Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Michael%20A.%20Marzano%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Michael A. Marzano Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Michael%20A.%20Marzano%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4a8f1cb482974480a96777b50b608642"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Redc19ea79d044e05a428770470ff72d3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra06f2b2c28154b5aa31cc3ff45bece83"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4d2d5b0b2be44ae087178266a6a1d7a3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R32783edbf90a4141b1d25500704e5755"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R73719b6a09a044ab808e16a757a3fc6b"/>
   </x:sheets>
 </x:workbook>
 </file>
